--- a/data/batch1_20230720/Trim_summary.xlsx
+++ b/data/batch1_20230720/Trim_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhakimjavadi/Dropbox (UFL)/microbiology_CHLA_AMPLIFIED/AMPLIFIED/data/batch1_20230720/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhakimjavadi/UFL Dropbox/Hesamedin Hakimjavadi/microbiology_CHLA_AMPLIFIED/AMPLIFIED/repositories/AMPLIFIED/data/batch1_20230720/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2123B923-16B1-C241-BA24-62699BDF3C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE03C269-B68D-BD44-8775-DA15EAA0CC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="3160" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="4340" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trim_summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -53,42 +53,6 @@
   </si>
   <si>
     <t>BFTMS23071404</t>
-  </si>
-  <si>
-    <t>BFTMS23071405</t>
-  </si>
-  <si>
-    <t>BFTMS23071406</t>
-  </si>
-  <si>
-    <t>BFTMS23071407</t>
-  </si>
-  <si>
-    <t>BFTMS23071408</t>
-  </si>
-  <si>
-    <t>BFTMS23071409</t>
-  </si>
-  <si>
-    <t>BFTMS23071410</t>
-  </si>
-  <si>
-    <t>BFTMS23071411</t>
-  </si>
-  <si>
-    <t>BFTMS23071412</t>
-  </si>
-  <si>
-    <t>BFTMS23071413</t>
-  </si>
-  <si>
-    <t>BFTMS23071414</t>
-  </si>
-  <si>
-    <t>BFTMS23071415</t>
-  </si>
-  <si>
-    <t>BFTMS23071416</t>
   </si>
   <si>
     <t>BFTMS23071417</t>
@@ -97,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -636,9 +600,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -676,7 +640,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -782,7 +746,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -924,19 +888,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1047,336 +1016,24 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>219300</v>
+        <v>159132</v>
       </c>
       <c r="C5">
-        <v>113.91776110000001</v>
+        <v>100.85392</v>
       </c>
       <c r="D5">
-        <v>173201</v>
+        <v>100703</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>173201</v>
+        <v>100703</v>
       </c>
       <c r="G5">
-        <v>78.979024170000002</v>
+        <v>63.282683560000002</v>
       </c>
       <c r="H5">
-        <v>135.58504859999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>246215</v>
-      </c>
-      <c r="C6">
-        <v>115.49448649999999</v>
-      </c>
-      <c r="D6">
-        <v>209484</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>209484</v>
-      </c>
-      <c r="G6">
-        <v>85.081737509999996</v>
-      </c>
-      <c r="H6">
-        <v>129.93352709999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>318907</v>
-      </c>
-      <c r="C7">
-        <v>117.8744085</v>
-      </c>
-      <c r="D7">
-        <v>268849</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>268849</v>
-      </c>
-      <c r="G7">
-        <v>84.303260829999999</v>
-      </c>
-      <c r="H7">
-        <v>133.7573582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>349668</v>
-      </c>
-      <c r="C8">
-        <v>122.955432</v>
-      </c>
-      <c r="D8">
-        <v>308304</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>308304</v>
-      </c>
-      <c r="G8">
-        <v>88.170493149999999</v>
-      </c>
-      <c r="H8">
-        <v>134.99120350000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>279089</v>
-      </c>
-      <c r="C9">
-        <v>120.90087389999999</v>
-      </c>
-      <c r="D9">
-        <v>248557</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>248557</v>
-      </c>
-      <c r="G9">
-        <v>89.060120609999998</v>
-      </c>
-      <c r="H9">
-        <v>131.5704647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>250637</v>
-      </c>
-      <c r="C10">
-        <v>116.38695800000001</v>
-      </c>
-      <c r="D10">
-        <v>219112</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>219112</v>
-      </c>
-      <c r="G10">
-        <v>87.422048619999998</v>
-      </c>
-      <c r="H10">
-        <v>128.59660360000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>691274</v>
-      </c>
-      <c r="C11">
-        <v>145.2219728</v>
-      </c>
-      <c r="D11">
-        <v>663786</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>663786</v>
-      </c>
-      <c r="G11">
-        <v>96.023573870000007</v>
-      </c>
-      <c r="H11">
-        <v>149.79938870000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>235804</v>
-      </c>
-      <c r="C12">
-        <v>103.65078200000001</v>
-      </c>
-      <c r="D12">
-        <v>181509</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>181509</v>
-      </c>
-      <c r="G12">
-        <v>76.974521210000006</v>
-      </c>
-      <c r="H12">
-        <v>125.1917646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>308894</v>
-      </c>
-      <c r="C13">
-        <v>115.8425835</v>
-      </c>
-      <c r="D13">
-        <v>276133</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>276133</v>
-      </c>
-      <c r="G13">
-        <v>89.394096360000006</v>
-      </c>
-      <c r="H13">
-        <v>125.65438760000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>507250</v>
-      </c>
-      <c r="C14">
-        <v>122.4400828</v>
-      </c>
-      <c r="D14">
-        <v>467290</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>467290</v>
-      </c>
-      <c r="G14">
-        <v>92.122227699999996</v>
-      </c>
-      <c r="H14">
-        <v>129.90729949999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>685467</v>
-      </c>
-      <c r="C15">
-        <v>131.22324929999999</v>
-      </c>
-      <c r="D15">
-        <v>639675</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>639675</v>
-      </c>
-      <c r="G15">
-        <v>93.319590880000007</v>
-      </c>
-      <c r="H15">
-        <v>138.11795359999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>417283</v>
-      </c>
-      <c r="C16">
-        <v>124.2995545</v>
-      </c>
-      <c r="D16">
-        <v>377893</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>377893</v>
-      </c>
-      <c r="G16">
-        <v>90.560363109999997</v>
-      </c>
-      <c r="H16">
-        <v>133.60605519999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>159132</v>
-      </c>
-      <c r="C17">
-        <v>100.85392</v>
-      </c>
-      <c r="D17">
-        <v>100703</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>100703</v>
-      </c>
-      <c r="G17">
-        <v>63.282683560000002</v>
-      </c>
-      <c r="H17">
         <v>141.3331579</v>
       </c>
     </row>
